--- a/DB 관련/DB구조.xlsx
+++ b/DB 관련/DB구조.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>기본키</t>
   </si>
@@ -33,12 +33,6 @@
     <t>varchar2(255)</t>
   </si>
   <si>
-    <t>영화제목(영문)</t>
-  </si>
-  <si>
-    <t>movieNmEn</t>
-  </si>
-  <si>
     <t>개봉일</t>
   </si>
   <si>
@@ -51,173 +45,178 @@
     <t>감독명(한글)</t>
   </si>
   <si>
+    <t>런타임</t>
+  </si>
+  <si>
+    <t>showTm</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>제작국가</t>
+  </si>
+  <si>
+    <t>nationNm</t>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+  </si>
+  <si>
+    <t>장르</t>
+  </si>
+  <si>
+    <t>관람등급</t>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+  </si>
+  <si>
+    <t>영화사</t>
+  </si>
+  <si>
+    <t>원언어</t>
+  </si>
+  <si>
+    <t>ori_lang</t>
+  </si>
+  <si>
+    <t>예산</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>배우</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>스텝</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>시리즈</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>키워드</t>
+  </si>
+  <si>
+    <t>수상내역</t>
+  </si>
+  <si>
+    <t>개봉 전 댓글 내용</t>
+  </si>
+  <si>
+    <t>naver_cmt</t>
+  </si>
+  <si>
+    <t>개봉 전 댓글 횟수</t>
+  </si>
+  <si>
+    <t>naver_cmt_nn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">개봉전 평점 </t>
+  </si>
+  <si>
+    <t>naver_pre_eval</t>
+  </si>
+  <si>
+    <t>원작도서</t>
+  </si>
+  <si>
+    <t>ori_book</t>
+  </si>
+  <si>
+    <t>기대지수</t>
+  </si>
+  <si>
+    <t>naver_ex_pt</t>
+  </si>
+  <si>
+    <t>누적관객수</t>
+  </si>
+  <si>
+    <t>audiAcc</t>
+  </si>
+  <si>
+    <t>줄거리</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시퀀스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 없음 / 1: 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: 없음 / 1: 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전형이 담긴 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companyNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watchGradeNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keywords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>directorNm</t>
-  </si>
-  <si>
-    <t>감독명(영문)</t>
-  </si>
-  <si>
-    <t>directorNmEn</t>
-  </si>
-  <si>
-    <t>런타임</t>
-  </si>
-  <si>
-    <t>showTm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genreNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>제작국가</t>
-  </si>
-  <si>
-    <t>nationNm</t>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-  </si>
-  <si>
-    <t>장르</t>
-  </si>
-  <si>
-    <t>genres</t>
-  </si>
-  <si>
-    <t>관람등급</t>
-  </si>
-  <si>
-    <t>watchGrade</t>
-  </si>
-  <si>
-    <t>varchar2(50)</t>
-  </si>
-  <si>
-    <t>영화사</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>원언어</t>
-  </si>
-  <si>
-    <t>ori_lang</t>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-  </si>
-  <si>
-    <t>예산</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>배우</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>스텝</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>시리즈</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>키워드</t>
-  </si>
-  <si>
-    <t>keyword</t>
-  </si>
-  <si>
-    <t>수상내역</t>
-  </si>
-  <si>
-    <t>award</t>
-  </si>
-  <si>
-    <t>개봉 전 댓글 내용</t>
-  </si>
-  <si>
-    <t>naver_cmt</t>
-  </si>
-  <si>
-    <t>개봉 전 댓글 횟수</t>
-  </si>
-  <si>
-    <t>naver_cmt_nn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">개봉전 평점 </t>
-  </si>
-  <si>
-    <t>naver_pre_eval</t>
-  </si>
-  <si>
-    <t>원작도서</t>
-  </si>
-  <si>
-    <t>ori_book</t>
-  </si>
-  <si>
-    <t>기대지수</t>
-  </si>
-  <si>
-    <t>naver_ex_pt</t>
-  </si>
-  <si>
-    <t>누적관객수</t>
-  </si>
-  <si>
-    <t>audiAcc</t>
-  </si>
-  <si>
-    <t>줄거리</t>
-  </si>
-  <si>
-    <t>plot</t>
-  </si>
-  <si>
-    <t>변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬럼명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시퀀스 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 없음 / 1: 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0: 없음 / 1: 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사전형이 담긴 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,13 +259,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,13 +309,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -635,13 +631,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -652,14 +648,14 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -670,268 +666,246 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
+      <c r="A4" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
